--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203264.3857336</v>
+        <v>203264.3857335999</v>
       </c>
     </row>
     <row r="7">
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>63.54393718438494</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.1246438066087</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.10292514811661</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>63.54393718438494</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>63.54393718438494</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.14967429983988</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>55.96949987200628</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>63.54393718438494</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63.54393718438494</v>
+        <v>17.23079022205104</v>
       </c>
       <c r="G12" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>55.25259944795651</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>63.54393718438497</v>
+        <v>22.1246438066087</v>
       </c>
       <c r="G14" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="H14" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>59.82321565059315</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.73870964995508</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.95151175584304</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.54393718438497</v>
+        <v>55.96949987200611</v>
       </c>
       <c r="S15" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51.56565584287713</v>
+        <v>51.56565584287716</v>
       </c>
       <c r="H17" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="I17" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="J17" t="n">
         <v>33.12795564134777</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>17.23079022205121</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>63.54393718438497</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>63.54393718438497</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.54393718438497</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.73870964995508</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>35.01798811616327</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2084,58 +2084,58 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>42.6396036565903</v>
+      </c>
+      <c r="T20" t="n">
         <v>75.67415048633356</v>
       </c>
-      <c r="G20" t="n">
+      <c r="U20" t="n">
         <v>75.67415048633356</v>
-      </c>
-      <c r="H20" t="n">
-        <v>75.67415048633356</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42.63960365659032</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>66.65379174836258</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>75.67415048633356</v>
       </c>
       <c r="G21" t="n">
-        <v>66.65379174836259</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>75.67415048633356</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>75.67415048633356</v>
-      </c>
-      <c r="X21" t="n">
-        <v>75.67415048633356</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>30.75269541179701</v>
+        <v>30.75269541179689</v>
       </c>
       <c r="D23" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>50.88569936081203</v>
       </c>
       <c r="D24" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X24" t="n">
-        <v>71.83721111665504</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>30.7526954117969</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="G26" t="n">
-        <v>30.75269541179703</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="D27" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>71.83721111665504</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>78.20882012364305</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>79.18378963041179</v>
       </c>
       <c r="H29" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.10292514811658</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V30" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="X30" t="n">
-        <v>71.83721111665507</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="Y30" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>30.75269541179689</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.75269541179701</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.55904985996263</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>71.8372111166551</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.41725495561087</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>38.73870964995508</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.24029637105172</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>55.25259944795652</v>
       </c>
       <c r="G35" t="n">
-        <v>55.25259944795652</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.73870964995508</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.23079022205121</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>55.96949987200628</v>
+      </c>
+      <c r="U36" t="n">
         <v>63.54393718438499</v>
-      </c>
-      <c r="S36" t="n">
-        <v>63.54393718438499</v>
-      </c>
-      <c r="T36" t="n">
-        <v>63.54393718438499</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>55.25259944795651</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>63.54393718438499</v>
       </c>
       <c r="X38" t="n">
-        <v>63.54393718438499</v>
+        <v>55.25259944795652</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>35.01798811616327</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.95151175584304</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>63.54393718438499</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="Y39" t="n">
-        <v>63.54393718438499</v>
+        <v>55.9694998720063</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>22.12464380660845</v>
       </c>
       <c r="W41" t="n">
-        <v>55.25259944795651</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>63.54393718438499</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>55.96949987200652</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>55.96949987200628</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>51.4137238824364</v>
+        <v>45.2852079956502</v>
       </c>
       <c r="D44" t="n">
-        <v>51.4137238824364</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.18228284753339</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.10292514811658</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="W44" t="n">
-        <v>51.4137238824364</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>51.4137238824364</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>51.4137238824364</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>51.4137238824364</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>45.28520799564996</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>45.2852079956502</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.26931011049317</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="C11" t="n">
-        <v>69.26931011049317</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="D11" t="n">
-        <v>5.083514974750796</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="E11" t="n">
-        <v>5.083514974750796</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="F11" t="n">
-        <v>5.083514974750796</v>
+        <v>231.1034818378843</v>
       </c>
       <c r="G11" t="n">
-        <v>5.083514974750796</v>
+        <v>166.9176867021421</v>
       </c>
       <c r="H11" t="n">
-        <v>5.083514974750796</v>
+        <v>102.7318915663999</v>
       </c>
       <c r="I11" t="n">
-        <v>5.083514974750796</v>
+        <v>38.54609643065762</v>
       </c>
       <c r="J11" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K11" t="n">
-        <v>6.668317430639846</v>
+        <v>6.668317430639862</v>
       </c>
       <c r="L11" t="n">
-        <v>45.53616687292868</v>
+        <v>45.5361668729287</v>
       </c>
       <c r="M11" t="n">
-        <v>108.4446646854698</v>
+        <v>108.4446646854697</v>
       </c>
       <c r="N11" t="n">
-        <v>171.3531624980109</v>
+        <v>171.3531624980106</v>
       </c>
       <c r="O11" t="n">
-        <v>234.261660310552</v>
+        <v>234.2616603105516</v>
       </c>
       <c r="P11" t="n">
-        <v>253.4516068950653</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.0042077555535</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="R11" t="n">
-        <v>219.0042077555535</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="S11" t="n">
-        <v>219.0042077555535</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="T11" t="n">
-        <v>219.0042077555535</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="U11" t="n">
-        <v>219.0042077555535</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="V11" t="n">
-        <v>154.8184126198112</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="W11" t="n">
-        <v>90.6326174840688</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="X11" t="n">
-        <v>69.26931011049317</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.26931011049317</v>
+        <v>253.4516068950649</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="C12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="D12" t="n">
-        <v>197.6409003819779</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4551052462355</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="F12" t="n">
-        <v>69.26931011049317</v>
+        <v>236.7709101294069</v>
       </c>
       <c r="G12" t="n">
-        <v>5.083514974750796</v>
+        <v>172.5851149936646</v>
       </c>
       <c r="H12" t="n">
-        <v>5.083514974750796</v>
+        <v>108.3993198579224</v>
       </c>
       <c r="I12" t="n">
-        <v>5.083514974750796</v>
+        <v>44.21352472218016</v>
       </c>
       <c r="J12" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K12" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L12" t="n">
-        <v>67.99201278729188</v>
+        <v>67.99201278729174</v>
       </c>
       <c r="M12" t="n">
-        <v>130.900510599833</v>
+        <v>130.9005105998327</v>
       </c>
       <c r="N12" t="n">
-        <v>147.6197480434292</v>
+        <v>193.8090084123737</v>
       </c>
       <c r="O12" t="n">
-        <v>210.5282458559703</v>
+        <v>210.5282458559698</v>
       </c>
       <c r="P12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="R12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="S12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="T12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="U12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="V12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="W12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="X12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Y12" t="n">
-        <v>254.1757487375398</v>
+        <v>254.1757487375392</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="M13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="N13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="O13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="P13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="R13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="S13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="T13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="U13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.083514974750796</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="C14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="D14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="E14" t="n">
-        <v>197.640900381978</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="F14" t="n">
-        <v>133.4551052462356</v>
+        <v>231.1034818378843</v>
       </c>
       <c r="G14" t="n">
-        <v>69.26931011049319</v>
+        <v>166.9176867021421</v>
       </c>
       <c r="H14" t="n">
-        <v>5.083514974750797</v>
+        <v>102.7318915663999</v>
       </c>
       <c r="I14" t="n">
-        <v>5.083514974750797</v>
+        <v>38.54609643065762</v>
       </c>
       <c r="J14" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K14" t="n">
-        <v>6.668317430639875</v>
+        <v>6.668317430639862</v>
       </c>
       <c r="L14" t="n">
-        <v>45.53616687292871</v>
+        <v>45.5361668729287</v>
       </c>
       <c r="M14" t="n">
-        <v>108.4446646854698</v>
+        <v>108.4446646854697</v>
       </c>
       <c r="N14" t="n">
-        <v>171.353162498011</v>
+        <v>171.3531624980106</v>
       </c>
       <c r="O14" t="n">
-        <v>234.2616603105521</v>
+        <v>234.2616603105516</v>
       </c>
       <c r="P14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="R14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="S14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="T14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="U14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="V14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="W14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="X14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.4516068950654</v>
+        <v>253.4516068950649</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I15" t="n">
-        <v>44.21352472218017</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J15" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K15" t="n">
-        <v>17.6898209470375</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L15" t="n">
-        <v>80.59831875957862</v>
+        <v>67.99201278729174</v>
       </c>
       <c r="M15" t="n">
-        <v>143.5068165721197</v>
+        <v>84.71125023088791</v>
       </c>
       <c r="N15" t="n">
-        <v>147.6197480434293</v>
+        <v>147.6197480434289</v>
       </c>
       <c r="O15" t="n">
-        <v>210.5282458559705</v>
+        <v>210.5282458559698</v>
       </c>
       <c r="P15" t="n">
-        <v>254.1757487375399</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375392</v>
       </c>
       <c r="R15" t="n">
-        <v>168.8268104140773</v>
+        <v>197.6409003819775</v>
       </c>
       <c r="S15" t="n">
-        <v>104.6410152783349</v>
+        <v>133.4551052462353</v>
       </c>
       <c r="T15" t="n">
-        <v>104.6410152783349</v>
+        <v>69.26931011049302</v>
       </c>
       <c r="U15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y15" t="n">
-        <v>104.6410152783349</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="C16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="D16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="E16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="F16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="G16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="H16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="I16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="J16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="K16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="L16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="M16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="N16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="O16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="P16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="R16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="S16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="T16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="U16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="V16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="W16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="X16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750785</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>38.54609643065763</v>
       </c>
       <c r="J17" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K17" t="n">
-        <v>6.668317430639875</v>
+        <v>6.668317430639877</v>
       </c>
       <c r="L17" t="n">
         <v>45.53616687292871</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F18" t="n">
-        <v>236.7709101294074</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G18" t="n">
-        <v>172.5851149936649</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H18" t="n">
-        <v>108.3993198579226</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I18" t="n">
-        <v>44.21352472218017</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J18" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K18" t="n">
         <v>17.6898209470375</v>
       </c>
       <c r="L18" t="n">
-        <v>80.59831875957862</v>
+        <v>80.59831875957863</v>
       </c>
       <c r="M18" t="n">
-        <v>143.5068165721197</v>
+        <v>143.5068165721198</v>
       </c>
       <c r="N18" t="n">
-        <v>147.6197480434293</v>
+        <v>206.4153143846609</v>
       </c>
       <c r="O18" t="n">
         <v>210.5282458559705</v>
@@ -5613,31 +5613,31 @@
         <v>254.1757487375399</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.1757487375399</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="R18" t="n">
-        <v>254.1757487375399</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="S18" t="n">
-        <v>254.1757487375399</v>
+        <v>233.0126055498197</v>
       </c>
       <c r="T18" t="n">
-        <v>254.1757487375399</v>
+        <v>168.8268104140773</v>
       </c>
       <c r="U18" t="n">
-        <v>254.1757487375399</v>
+        <v>104.6410152783349</v>
       </c>
       <c r="V18" t="n">
-        <v>254.1757487375399</v>
+        <v>40.45522014259248</v>
       </c>
       <c r="W18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y18" t="n">
-        <v>254.1757487375399</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="C19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="D19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="E19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="F19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="H19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="K19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="L19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="M19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="N19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="O19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="P19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="R19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="S19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="T19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="U19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="V19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="W19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="X19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.083514974750797</v>
+        <v>5.083514974750799</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="C20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="D20" t="n">
-        <v>278.4398462970794</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="E20" t="n">
-        <v>278.4398462970794</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="F20" t="n">
-        <v>202.0013104522981</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="G20" t="n">
-        <v>125.5627746075167</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="H20" t="n">
-        <v>49.1242387627353</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="I20" t="n">
         <v>6.053932038906685</v>
@@ -5777,25 +5777,25 @@
         <v>278.4398462970794</v>
       </c>
       <c r="S20" t="n">
-        <v>278.4398462970794</v>
+        <v>235.3695395732508</v>
       </c>
       <c r="T20" t="n">
-        <v>278.4398462970794</v>
+        <v>158.9310037284694</v>
       </c>
       <c r="U20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="V20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="W20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.4398462970794</v>
+        <v>82.49246788368806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.38099441099011</v>
+        <v>226.2580661005529</v>
       </c>
       <c r="C21" t="n">
-        <v>73.38099441099011</v>
+        <v>226.2580661005529</v>
       </c>
       <c r="D21" t="n">
-        <v>73.38099441099011</v>
+        <v>158.9310037284694</v>
       </c>
       <c r="E21" t="n">
-        <v>73.38099441099011</v>
+        <v>82.49246788368806</v>
       </c>
       <c r="F21" t="n">
-        <v>73.38099441099011</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="G21" t="n">
         <v>6.053932038906685</v>
@@ -5832,7 +5832,7 @@
         <v>6.053932038906685</v>
       </c>
       <c r="K21" t="n">
-        <v>18.66023801119339</v>
+        <v>6.053932038906685</v>
       </c>
       <c r="L21" t="n">
         <v>34.29687211935416</v>
@@ -5856,25 +5856,25 @@
         <v>302.6966019453342</v>
       </c>
       <c r="S21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="T21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="U21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="V21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="W21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="X21" t="n">
+        <v>302.6966019453342</v>
+      </c>
+      <c r="Y21" t="n">
         <v>226.2580661005529</v>
-      </c>
-      <c r="T21" t="n">
-        <v>226.2580661005529</v>
-      </c>
-      <c r="U21" t="n">
-        <v>226.2580661005529</v>
-      </c>
-      <c r="V21" t="n">
-        <v>226.2580661005529</v>
-      </c>
-      <c r="W21" t="n">
-        <v>149.8195302557715</v>
-      </c>
-      <c r="X21" t="n">
-        <v>73.38099441099011</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>73.38099441099011</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="C22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="D22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="E22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="F22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="G22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="H22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="I22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="J22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="K22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="L22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="M22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="N22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="O22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="P22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="R22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="S22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="T22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="U22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="V22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="W22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="X22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.053932038906685</v>
+        <v>302.6966019453342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>284.7366886268626</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="C23" t="n">
-        <v>253.6733599280777</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D23" t="n">
-        <v>171.2904812816508</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E23" t="n">
-        <v>171.2904812816508</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F23" t="n">
-        <v>88.90760263522391</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G23" t="n">
-        <v>88.90760263522391</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H23" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I23" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J23" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K23" t="n">
-        <v>8.109526444686088</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L23" t="n">
         <v>46.97737588697493</v>
@@ -6017,22 +6017,22 @@
         <v>284.7366886268626</v>
       </c>
       <c r="T23" t="n">
-        <v>284.7366886268626</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U23" t="n">
-        <v>284.7366886268626</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V23" t="n">
-        <v>284.7366886268626</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="W23" t="n">
-        <v>284.7366886268626</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="X23" t="n">
-        <v>284.7366886268626</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.7366886268626</v>
+        <v>37.58805268758175</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.6733599280777</v>
+        <v>57.92442031284958</v>
       </c>
       <c r="C24" t="n">
-        <v>253.6733599280777</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D24" t="n">
-        <v>171.2904812816508</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E24" t="n">
-        <v>88.90760263522391</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F24" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G24" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H24" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I24" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J24" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K24" t="n">
-        <v>6.52472398879701</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L24" t="n">
-        <v>69.79799923847428</v>
+        <v>42.62993867630078</v>
       </c>
       <c r="M24" t="n">
-        <v>150.5414585998373</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N24" t="n">
-        <v>231.2849179612003</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O24" t="n">
-        <v>282.5886965582811</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P24" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.2361994398505</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="R24" t="n">
-        <v>326.2361994398505</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="S24" t="n">
-        <v>326.2361994398505</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="T24" t="n">
-        <v>326.2361994398505</v>
+        <v>305.0730562521304</v>
       </c>
       <c r="U24" t="n">
-        <v>326.2361994398505</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="V24" t="n">
-        <v>326.2361994398505</v>
+        <v>222.6901776057035</v>
       </c>
       <c r="W24" t="n">
-        <v>326.2361994398505</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="X24" t="n">
-        <v>253.6733599280777</v>
+        <v>140.3072989592765</v>
       </c>
       <c r="Y24" t="n">
-        <v>253.6733599280777</v>
+        <v>140.3072989592765</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="L25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="M25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="N25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="O25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="P25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="R25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="S25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="T25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="U25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="V25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="W25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="X25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.58805268758189</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="C26" t="n">
-        <v>37.58805268758189</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="D26" t="n">
-        <v>37.58805268758189</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="E26" t="n">
-        <v>37.58805268758189</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="F26" t="n">
-        <v>37.58805268758189</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="G26" t="n">
-        <v>6.52472398879701</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="H26" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I26" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J26" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K26" t="n">
-        <v>8.109526444686088</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L26" t="n">
         <v>46.97737588697493</v>
@@ -6251,25 +6251,25 @@
         <v>284.7366886268626</v>
       </c>
       <c r="S26" t="n">
-        <v>202.3538099804357</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T26" t="n">
-        <v>202.3538099804357</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="U26" t="n">
-        <v>202.3538099804357</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="V26" t="n">
-        <v>202.3538099804357</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="W26" t="n">
-        <v>202.3538099804357</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="X26" t="n">
-        <v>119.9709313340088</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Y26" t="n">
-        <v>119.9709313340088</v>
+        <v>284.7366886268626</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.90760263522391</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="C27" t="n">
-        <v>88.90760263522391</v>
+        <v>161.4704421469968</v>
       </c>
       <c r="D27" t="n">
-        <v>6.52472398879701</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="E27" t="n">
-        <v>6.52472398879701</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="F27" t="n">
-        <v>6.52472398879701</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="G27" t="n">
-        <v>6.52472398879701</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="H27" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I27" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J27" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K27" t="n">
-        <v>19.13102996108371</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L27" t="n">
         <v>82.40430521076098</v>
       </c>
       <c r="M27" t="n">
-        <v>123.3733980376637</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N27" t="n">
-        <v>204.1168573990267</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O27" t="n">
-        <v>282.5886965582811</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P27" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q27" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R27" t="n">
-        <v>253.6733599280777</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X27" t="n">
-        <v>171.2904812816508</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.90760263522391</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="C29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="D29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="E29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="F29" t="n">
-        <v>88.90760263522391</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="G29" t="n">
-        <v>88.90760263522391</v>
+        <v>204.7530627375577</v>
       </c>
       <c r="H29" t="n">
-        <v>6.52472398879701</v>
+        <v>122.3701840911308</v>
       </c>
       <c r="I29" t="n">
-        <v>6.52472398879701</v>
+        <v>39.98730544470385</v>
       </c>
       <c r="J29" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K29" t="n">
-        <v>8.109526444686088</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L29" t="n">
         <v>46.97737588697493</v>
@@ -6482,31 +6482,31 @@
         <v>284.7366886268626</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.2892894873509</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R29" t="n">
-        <v>250.2892894873509</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S29" t="n">
-        <v>250.2892894873509</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="U29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="V29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="W29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="X29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="Y29" t="n">
-        <v>167.906410840924</v>
+        <v>284.7366886268626</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.90760263522391</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="C30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="D30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="E30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J30" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K30" t="n">
-        <v>19.13102996108371</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L30" t="n">
         <v>82.40430521076098</v>
       </c>
       <c r="M30" t="n">
-        <v>123.3733980376637</v>
+        <v>163.147764572124</v>
       </c>
       <c r="N30" t="n">
-        <v>204.1168573990267</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O30" t="n">
-        <v>282.5886965582811</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P30" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R30" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S30" t="n">
-        <v>326.2361994398505</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="T30" t="n">
-        <v>326.2361994398505</v>
+        <v>253.6733599280778</v>
       </c>
       <c r="U30" t="n">
-        <v>326.2361994398505</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="V30" t="n">
-        <v>243.8533207934236</v>
+        <v>171.2904812816509</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8533207934236</v>
+        <v>88.90760263522395</v>
       </c>
       <c r="X30" t="n">
-        <v>171.2904812816508</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.90760263522391</v>
+        <v>6.524723988797014</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="C32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="D32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="E32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="F32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="G32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="H32" t="n">
-        <v>6.52472398879701</v>
+        <v>119.9709313340087</v>
       </c>
       <c r="I32" t="n">
-        <v>6.52472398879701</v>
+        <v>37.58805268758175</v>
       </c>
       <c r="J32" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K32" t="n">
-        <v>8.109526444686088</v>
+        <v>8.109526444686091</v>
       </c>
       <c r="L32" t="n">
         <v>46.97737588697493</v>
@@ -6719,31 +6719,31 @@
         <v>284.7366886268626</v>
       </c>
       <c r="Q32" t="n">
-        <v>253.6733599280777</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="R32" t="n">
-        <v>171.2904812816508</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="S32" t="n">
-        <v>88.90760263522391</v>
+        <v>284.7366886268626</v>
       </c>
       <c r="T32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="U32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="V32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="W32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="X32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.52472398879701</v>
+        <v>202.3538099804356</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.1358497115532</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="C33" t="n">
-        <v>113.7529710651263</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="D33" t="n">
-        <v>113.7529710651263</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="E33" t="n">
-        <v>113.7529710651263</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="F33" t="n">
-        <v>113.7529710651263</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="G33" t="n">
-        <v>113.7529710651263</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="H33" t="n">
-        <v>113.7529710651263</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="I33" t="n">
-        <v>45.65473373622639</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="J33" t="n">
-        <v>6.52472398879701</v>
+        <v>6.524723988797014</v>
       </c>
       <c r="K33" t="n">
-        <v>19.13102996108371</v>
+        <v>19.13102996108372</v>
       </c>
       <c r="L33" t="n">
-        <v>82.40430521076098</v>
+        <v>42.62993867630078</v>
       </c>
       <c r="M33" t="n">
-        <v>163.147764572124</v>
+        <v>123.3733980376638</v>
       </c>
       <c r="N33" t="n">
-        <v>204.1168573990267</v>
+        <v>204.1168573990269</v>
       </c>
       <c r="O33" t="n">
-        <v>282.5886965582811</v>
+        <v>282.5886965582812</v>
       </c>
       <c r="P33" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.2361994398505</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R33" t="n">
-        <v>278.5187283579801</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S33" t="n">
-        <v>196.1358497115532</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1358497115532</v>
+        <v>243.8533207934237</v>
       </c>
       <c r="U33" t="n">
-        <v>196.1358497115532</v>
+        <v>161.4704421469968</v>
       </c>
       <c r="V33" t="n">
-        <v>196.1358497115532</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="W33" t="n">
-        <v>196.1358497115532</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="X33" t="n">
-        <v>196.1358497115532</v>
+        <v>79.08756350056984</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.1358497115532</v>
+        <v>79.08756350056984</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="C34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="D34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="E34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="F34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="G34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="H34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="I34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="J34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="K34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="L34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="M34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="N34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="O34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="P34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="R34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="S34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="T34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="U34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="V34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="W34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="X34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.52472398879701</v>
+        <v>326.2361994398507</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.89422148783819</v>
+        <v>189.265811759323</v>
       </c>
       <c r="C35" t="n">
-        <v>60.89422148783819</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="D35" t="n">
         <v>60.89422148783819</v>
@@ -6923,7 +6923,7 @@
         <v>60.89422148783819</v>
       </c>
       <c r="F35" t="n">
-        <v>60.89422148783819</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="G35" t="n">
         <v>5.083514974750799</v>
@@ -6959,28 +6959,28 @@
         <v>253.4516068950654</v>
       </c>
       <c r="R35" t="n">
-        <v>189.265811759323</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="S35" t="n">
-        <v>189.265811759323</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="T35" t="n">
-        <v>189.265811759323</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="U35" t="n">
-        <v>125.0800166235806</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="V35" t="n">
-        <v>125.0800166235806</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="W35" t="n">
-        <v>60.89422148783819</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="X35" t="n">
-        <v>60.89422148783819</v>
+        <v>253.4516068950654</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.89422148783819</v>
+        <v>253.4516068950654</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="C36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="D36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="E36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="F36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="G36" t="n">
-        <v>44.21352472218017</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="H36" t="n">
-        <v>44.21352472218017</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="I36" t="n">
-        <v>44.21352472218017</v>
+        <v>5.083514974750799</v>
       </c>
       <c r="J36" t="n">
         <v>5.083514974750799</v>
@@ -7020,7 +7020,7 @@
         <v>17.6898209470375</v>
       </c>
       <c r="L36" t="n">
-        <v>80.59831875957863</v>
+        <v>21.80275241834712</v>
       </c>
       <c r="M36" t="n">
         <v>84.71125023088825</v>
@@ -7035,31 +7035,31 @@
         <v>254.1757487375399</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7709101294074</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R36" t="n">
-        <v>172.585114993665</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S36" t="n">
-        <v>108.3993198579226</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T36" t="n">
-        <v>44.21352472218017</v>
+        <v>197.640900381978</v>
       </c>
       <c r="U36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="V36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="W36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="X36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.21352472218017</v>
+        <v>133.4551052462356</v>
       </c>
     </row>
     <row r="37">
@@ -7196,22 +7196,22 @@
         <v>253.4516068950654</v>
       </c>
       <c r="R38" t="n">
-        <v>253.4516068950654</v>
+        <v>189.265811759323</v>
       </c>
       <c r="S38" t="n">
-        <v>253.4516068950654</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="T38" t="n">
-        <v>253.4516068950654</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="U38" t="n">
-        <v>197.640900381978</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="V38" t="n">
-        <v>133.4551052462356</v>
+        <v>125.0800166235806</v>
       </c>
       <c r="W38" t="n">
-        <v>69.26931011049321</v>
+        <v>60.89422148783819</v>
       </c>
       <c r="X38" t="n">
         <v>5.083514974750799</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.45522014259248</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="C39" t="n">
-        <v>5.083514974750799</v>
+        <v>69.26931011049321</v>
       </c>
       <c r="D39" t="n">
         <v>5.083514974750799</v>
@@ -7272,31 +7272,31 @@
         <v>254.1757487375399</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="R39" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="S39" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="T39" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="U39" t="n">
-        <v>233.0126055498197</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="V39" t="n">
-        <v>168.8268104140773</v>
+        <v>254.1757487375399</v>
       </c>
       <c r="W39" t="n">
-        <v>104.6410152783349</v>
+        <v>189.9899536017975</v>
       </c>
       <c r="X39" t="n">
-        <v>104.6410152783349</v>
+        <v>125.8041584660551</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.45522014259248</v>
+        <v>69.26931011049321</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.083514974750799</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="C41" t="n">
-        <v>5.083514974750799</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="D41" t="n">
-        <v>5.083514974750799</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="E41" t="n">
-        <v>5.083514974750799</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="F41" t="n">
-        <v>5.083514974750799</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="G41" t="n">
-        <v>5.083514974750799</v>
+        <v>166.917686702143</v>
       </c>
       <c r="H41" t="n">
-        <v>5.083514974750799</v>
+        <v>102.7318915664003</v>
       </c>
       <c r="I41" t="n">
-        <v>5.083514974750799</v>
+        <v>38.54609643065766</v>
       </c>
       <c r="J41" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K41" t="n">
-        <v>6.668317430639877</v>
+        <v>6.668317430639899</v>
       </c>
       <c r="L41" t="n">
-        <v>45.53616687292871</v>
+        <v>45.53616687292873</v>
       </c>
       <c r="M41" t="n">
-        <v>108.4446646854698</v>
+        <v>108.4446646854701</v>
       </c>
       <c r="N41" t="n">
-        <v>171.353162498011</v>
+        <v>171.3531624980116</v>
       </c>
       <c r="O41" t="n">
-        <v>234.2616603105521</v>
+        <v>234.2616603105527</v>
       </c>
       <c r="P41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="Q41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="R41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="S41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="T41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="U41" t="n">
-        <v>253.4516068950654</v>
+        <v>253.451606895066</v>
       </c>
       <c r="V41" t="n">
-        <v>253.4516068950654</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="W41" t="n">
-        <v>197.640900381978</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="X41" t="n">
-        <v>133.4551052462356</v>
+        <v>231.1034818378857</v>
       </c>
       <c r="Y41" t="n">
-        <v>69.26931011049321</v>
+        <v>231.1034818378857</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="C42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="D42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="E42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4551052462356</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4551052462356</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="H42" t="n">
-        <v>69.26931011049321</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="I42" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="J42" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K42" t="n">
-        <v>17.6898209470375</v>
+        <v>17.68982094703752</v>
       </c>
       <c r="L42" t="n">
-        <v>21.80275241834712</v>
+        <v>80.59831875957894</v>
       </c>
       <c r="M42" t="n">
-        <v>84.71125023088825</v>
+        <v>143.5068165721204</v>
       </c>
       <c r="N42" t="n">
-        <v>147.6197480434294</v>
+        <v>147.6197480434302</v>
       </c>
       <c r="O42" t="n">
-        <v>210.5282458559705</v>
+        <v>210.5282458559716</v>
       </c>
       <c r="P42" t="n">
-        <v>254.1757487375399</v>
+        <v>254.1757487375411</v>
       </c>
       <c r="Q42" t="n">
-        <v>254.1757487375399</v>
+        <v>254.1757487375411</v>
       </c>
       <c r="R42" t="n">
-        <v>254.1757487375399</v>
+        <v>189.9899536017984</v>
       </c>
       <c r="S42" t="n">
-        <v>254.1757487375399</v>
+        <v>125.8041584660557</v>
       </c>
       <c r="T42" t="n">
-        <v>254.1757487375399</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="U42" t="n">
-        <v>254.1757487375399</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="V42" t="n">
-        <v>254.1757487375399</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="W42" t="n">
-        <v>254.1757487375399</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="X42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.640900381978</v>
+        <v>69.26931011049352</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="C43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="D43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="E43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="F43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="G43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="H43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="I43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="J43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="K43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="L43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="M43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="N43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="O43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="P43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="R43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="S43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="T43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="U43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="V43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="W43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="X43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.083514974750799</v>
+        <v>5.083514974750821</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119.2744419635305</v>
+        <v>101.7887866763392</v>
       </c>
       <c r="C44" t="n">
-        <v>67.34138753682703</v>
+        <v>56.04615233729864</v>
       </c>
       <c r="D44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I44" t="n">
-        <v>15.40833311012359</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J44" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K44" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="L44" t="n">
-        <v>42.98094735288375</v>
+        <v>42.98094735288377</v>
       </c>
       <c r="M44" t="n">
-        <v>93.88053399649579</v>
+        <v>93.88053399649607</v>
       </c>
       <c r="N44" t="n">
-        <v>144.7801206401078</v>
+        <v>144.7801206401084</v>
       </c>
       <c r="O44" t="n">
-        <v>195.6797072837199</v>
+        <v>195.6797072837206</v>
       </c>
       <c r="P44" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="Q44" t="n">
-        <v>171.2074963902339</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="R44" t="n">
-        <v>171.2074963902339</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="S44" t="n">
-        <v>171.2074963902339</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="T44" t="n">
-        <v>171.2074963902339</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="U44" t="n">
-        <v>171.2074963902339</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="V44" t="n">
-        <v>171.2074963902339</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="W44" t="n">
-        <v>119.2744419635305</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="X44" t="n">
-        <v>119.2744419635305</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="Y44" t="n">
-        <v>119.2744419635305</v>
+        <v>101.7887866763392</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="C45" t="n">
-        <v>153.7218411030422</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="D45" t="n">
-        <v>101.7887866763387</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E45" t="n">
-        <v>49.85573224963528</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F45" t="n">
-        <v>49.85573224963528</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G45" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H45" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I45" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J45" t="n">
-        <v>4.113097910594912</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K45" t="n">
-        <v>16.71940388288161</v>
+        <v>16.71940388288164</v>
       </c>
       <c r="L45" t="n">
-        <v>67.61899052649366</v>
+        <v>16.71940388288164</v>
       </c>
       <c r="M45" t="n">
-        <v>118.5185771701057</v>
+        <v>60.20821936095265</v>
       </c>
       <c r="N45" t="n">
-        <v>162.0073926481762</v>
+        <v>111.1078060045649</v>
       </c>
       <c r="O45" t="n">
-        <v>162.0073926481762</v>
+        <v>162.0073926481772</v>
       </c>
       <c r="P45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="R45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="S45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="T45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="U45" t="n">
-        <v>205.6548955297456</v>
+        <v>205.6548955297467</v>
       </c>
       <c r="V45" t="n">
-        <v>205.6548955297456</v>
+        <v>153.7218411030429</v>
       </c>
       <c r="W45" t="n">
-        <v>205.6548955297456</v>
+        <v>101.7887866763392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.6548955297456</v>
+        <v>49.85573224963554</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="C46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="D46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="E46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="F46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="G46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="H46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="I46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="J46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="K46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="L46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="M46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="N46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="O46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="P46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="R46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="S46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="T46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="U46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="V46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="W46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="X46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.6548955297456</v>
+        <v>4.113097910594933</v>
       </c>
     </row>
   </sheetData>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>291.139104436298</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>384.7514019351028</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5599377815856</v>
+        <v>350.0160005972008</v>
       </c>
       <c r="H11" t="n">
-        <v>321.6263543445543</v>
+        <v>258.0824171601695</v>
       </c>
       <c r="I11" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835777</v>
       </c>
       <c r="J11" t="n">
-        <v>33.12795564134777</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R11" t="n">
         <v>106.1093940515595</v>
       </c>
       <c r="S11" t="n">
-        <v>169.3060206579884</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T11" t="n">
         <v>215.4667437305189</v>
@@ -23315,13 +23315,13 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V11" t="n">
-        <v>264.2083212857499</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>285.6970315330281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>348.5814263786291</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,25 +23340,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>91.47556569263247</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>94.101143271016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>81.52527520899893</v>
+        <v>127.8384221713328</v>
       </c>
       <c r="G12" t="n">
-        <v>72.86709991384215</v>
+        <v>72.86709991384228</v>
       </c>
       <c r="H12" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029703</v>
       </c>
       <c r="I12" t="n">
-        <v>67.41725495561087</v>
+        <v>3.873317771226063</v>
       </c>
       <c r="J12" t="n">
-        <v>38.7387096499551</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.95151175584306</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R12" t="n">
-        <v>87.78394343805662</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S12" t="n">
         <v>154.3627628792534</v>
@@ -23437,22 +23437,22 @@
         <v>131.9408207838627</v>
       </c>
       <c r="J13" t="n">
-        <v>71.72499209441816</v>
+        <v>71.72499209441814</v>
       </c>
       <c r="K13" t="n">
-        <v>38.18696435173402</v>
+        <v>38.18696435173401</v>
       </c>
       <c r="L13" t="n">
-        <v>18.65829059167037</v>
+        <v>18.65829059167034</v>
       </c>
       <c r="M13" t="n">
-        <v>16.38135637971835</v>
+        <v>16.38135637971834</v>
       </c>
       <c r="N13" t="n">
-        <v>8.054949484647537</v>
+        <v>8.054949484647508</v>
       </c>
       <c r="O13" t="n">
-        <v>27.95832121438391</v>
+        <v>27.9583212143839</v>
       </c>
       <c r="P13" t="n">
         <v>43.17769004560041</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>326.6777706243053</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>343.3321085573265</v>
+        <v>384.7514019351028</v>
       </c>
       <c r="G14" t="n">
-        <v>350.0160005972007</v>
+        <v>350.0160005972008</v>
       </c>
       <c r="H14" t="n">
-        <v>258.0824171601694</v>
+        <v>258.0824171601695</v>
       </c>
       <c r="I14" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835777</v>
       </c>
       <c r="J14" t="n">
-        <v>33.12795564134777</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23592,10 +23592,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I15" t="n">
-        <v>7.594039305017724</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23616,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R15" t="n">
-        <v>24.24000625367164</v>
+        <v>31.8144435660505</v>
       </c>
       <c r="S15" t="n">
-        <v>90.81882569486841</v>
+        <v>90.81882569486856</v>
       </c>
       <c r="T15" t="n">
-        <v>196.4061796609626</v>
+        <v>132.8622424765777</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238937</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23750,7 +23750,7 @@
         <v>258.0824171601694</v>
       </c>
       <c r="I17" t="n">
-        <v>79.74266565835761</v>
+        <v>79.74266565835759</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>127.8384221713327</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>72.86709991384213</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H18" t="n">
-        <v>39.68571274029686</v>
+        <v>103.2296499246818</v>
       </c>
       <c r="I18" t="n">
-        <v>3.873317771225899</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.95151175584304</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>87.78394343805661</v>
@@ -23862,16 +23862,16 @@
         <v>154.3627628792534</v>
       </c>
       <c r="T18" t="n">
-        <v>196.4061796609626</v>
+        <v>132.8622424765776</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>169.2566499650403</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>216.6769950447563</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>279.0088911343494</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>331.2018952553778</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>337.885787295252</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H20" t="n">
-        <v>245.9522038582208</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I20" t="n">
-        <v>100.6469991861523</v>
+        <v>143.2866028427426</v>
       </c>
       <c r="J20" t="n">
         <v>33.12795564134777</v>
@@ -24017,13 +24017,13 @@
         <v>106.1093940515595</v>
       </c>
       <c r="S20" t="n">
-        <v>169.3060206579883</v>
+        <v>126.666417001398</v>
       </c>
       <c r="T20" t="n">
-        <v>215.4667437305189</v>
+        <v>139.7925932441853</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2062289291525</v>
+        <v>175.532078442819</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24051,16 +24051,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>80.79127381627617</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>81.97092996906738</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>69.39506190705032</v>
       </c>
       <c r="G21" t="n">
-        <v>69.7572453498645</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H21" t="n">
         <v>103.2296499246818</v>
@@ -24096,7 +24096,7 @@
         <v>87.78394343805661</v>
       </c>
       <c r="S21" t="n">
-        <v>78.68861239291982</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T21" t="n">
         <v>196.4061796609626</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>176.020832674586</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>130.0988347171439</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>130.0085452909708</v>
       </c>
     </row>
     <row r="22">
@@ -24206,22 +24206,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>334.5201963592106</v>
+        <v>334.5201963592107</v>
       </c>
       <c r="D23" t="n">
-        <v>273.1239917607203</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>325.3169958817488</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.5599377815856</v>
       </c>
       <c r="H23" t="n">
-        <v>240.0673044845917</v>
+        <v>321.6263543445543</v>
       </c>
       <c r="I23" t="n">
         <v>143.2866028427426</v>
@@ -24257,13 +24257,13 @@
         <v>169.3060206579883</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4667437305189</v>
+        <v>133.9076938705562</v>
       </c>
       <c r="U23" t="n">
         <v>251.2062289291525</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1932086101722</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>304.6788887960909</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>84.97413378990467</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>121.8227996275037</v>
       </c>
       <c r="D24" t="n">
-        <v>65.88601570467613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>76.08603059543832</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>63.51016253342125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.4110370982271</v>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.95151175584304</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>87.78394343805661</v>
@@ -24339,16 +24339,16 @@
         <v>196.4061796609626</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>170.1359333009569</v>
       </c>
       <c r="X24" t="n">
-        <v>133.9357740868224</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.174791803518</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>351.1776746604649</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>325.3169958817488</v>
       </c>
       <c r="G26" t="n">
-        <v>382.8072423697886</v>
+        <v>332.000887921623</v>
       </c>
       <c r="H26" t="n">
-        <v>321.6263543445543</v>
+        <v>240.0673044845917</v>
       </c>
       <c r="I26" t="n">
         <v>143.2866028427426</v>
@@ -24491,7 +24491,7 @@
         <v>106.1093940515595</v>
       </c>
       <c r="S26" t="n">
-        <v>87.74697079802571</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T26" t="n">
         <v>215.4667437305189</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>288.1720508185064</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>84.97413378990467</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>91.14944912835307</v>
       </c>
       <c r="D27" t="n">
-        <v>65.88601570467613</v>
+        <v>65.88601570467608</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,7 +24537,7 @@
         <v>136.4110370982271</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2296499246818</v>
+        <v>31.39243880802674</v>
       </c>
       <c r="I27" t="n">
         <v>67.41725495561087</v>
@@ -24567,10 +24567,10 @@
         <v>20.95151175584304</v>
       </c>
       <c r="R27" t="n">
-        <v>15.94673232140157</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S27" t="n">
-        <v>72.80371301929075</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T27" t="n">
         <v>196.4061796609626</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>124.1236459173417</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>328.6672256180684</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5599377815856</v>
+        <v>334.3761481511738</v>
       </c>
       <c r="H29" t="n">
         <v>240.0673044845917</v>
       </c>
       <c r="I29" t="n">
-        <v>143.2866028427426</v>
+        <v>61.72755298277991</v>
       </c>
       <c r="J29" t="n">
-        <v>33.12795564134777</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R29" t="n">
         <v>106.1093940515595</v>
@@ -24731,7 +24731,7 @@
         <v>169.3060206579883</v>
       </c>
       <c r="T29" t="n">
-        <v>133.9076938705562</v>
+        <v>215.4667437305189</v>
       </c>
       <c r="U29" t="n">
         <v>251.2062289291525</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>91.14944912835311</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,25 +24807,25 @@
         <v>87.78394343805661</v>
       </c>
       <c r="S30" t="n">
-        <v>154.3627628792534</v>
+        <v>82.52555176259828</v>
       </c>
       <c r="T30" t="n">
         <v>196.4061796609626</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V30" t="n">
-        <v>151.2415372894627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>170.1359333009569</v>
       </c>
       <c r="X30" t="n">
-        <v>133.9357740868224</v>
+        <v>124.2139353435148</v>
       </c>
       <c r="Y30" t="n">
-        <v>124.1236459173417</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>301.1747918035179</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24935,10 +24935,10 @@
         <v>321.6263543445543</v>
       </c>
       <c r="I32" t="n">
-        <v>143.2866028427426</v>
+        <v>61.72755298277991</v>
       </c>
       <c r="J32" t="n">
-        <v>33.12795564134777</v>
+        <v>2.375260229550879</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.350229736319577</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R32" t="n">
-        <v>24.55034419159689</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S32" t="n">
-        <v>87.74697079802571</v>
+        <v>169.3060206579883</v>
       </c>
       <c r="T32" t="n">
         <v>133.9076938705562</v>
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>91.14944912835311</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>85.80786933874585</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25014,10 @@
         <v>103.2296499246818</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.41725495561087</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25041,19 @@
         <v>20.95151175584304</v>
       </c>
       <c r="R33" t="n">
-        <v>40.54364706700489</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S33" t="n">
-        <v>72.80371301929075</v>
+        <v>72.80371301929071</v>
       </c>
       <c r="T33" t="n">
         <v>196.4061796609626</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8800347082785</v>
+        <v>144.3209848483159</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>151.2415372894626</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>319.1899044790956</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>301.7289545866225</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>291.139104436298</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>351.6234462937549</v>
       </c>
       <c r="G35" t="n">
-        <v>358.3073383336291</v>
+        <v>413.5599377815856</v>
       </c>
       <c r="H35" t="n">
         <v>321.6263543445543</v>
@@ -25199,7 +25199,7 @@
         <v>34.10292514811658</v>
       </c>
       <c r="R35" t="n">
-        <v>42.56545686717453</v>
+        <v>106.1093940515595</v>
       </c>
       <c r="S35" t="n">
         <v>169.3060206579883</v>
@@ -25208,13 +25208,13 @@
         <v>215.4667437305189</v>
       </c>
       <c r="U35" t="n">
-        <v>187.6622917447675</v>
+        <v>251.2062289291525</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>285.6970315330281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25245,16 +25245,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4110370982271</v>
+        <v>72.86709991384211</v>
       </c>
       <c r="H36" t="n">
-        <v>103.2296499246818</v>
+        <v>39.68571274029685</v>
       </c>
       <c r="I36" t="n">
         <v>67.41725495561087</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>38.73870964995508</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25275,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.720721533791835</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R36" t="n">
-        <v>24.24000625367162</v>
+        <v>87.78394343805661</v>
       </c>
       <c r="S36" t="n">
-        <v>90.81882569486839</v>
+        <v>154.3627628792534</v>
       </c>
       <c r="T36" t="n">
-        <v>132.8622424765776</v>
+        <v>140.4366797889563</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8800347082785</v>
+        <v>162.3360975238936</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25436,25 +25436,25 @@
         <v>34.10292514811658</v>
       </c>
       <c r="R38" t="n">
-        <v>106.1093940515595</v>
+        <v>42.56545686717453</v>
       </c>
       <c r="S38" t="n">
-        <v>169.3060206579883</v>
+        <v>105.7620834736034</v>
       </c>
       <c r="T38" t="n">
         <v>215.4667437305189</v>
       </c>
       <c r="U38" t="n">
-        <v>195.953629481196</v>
+        <v>251.2062289291525</v>
       </c>
       <c r="V38" t="n">
-        <v>264.2083212857499</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>285.6970315330281</v>
       </c>
       <c r="X38" t="n">
-        <v>306.1871634940841</v>
+        <v>314.4785012305125</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>137.6905108721525</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.90112838025377</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.95151175584304</v>
       </c>
       <c r="R39" t="n">
         <v>87.78394343805661</v>
@@ -25527,16 +25527,16 @@
         <v>225.8800347082785</v>
       </c>
       <c r="V39" t="n">
-        <v>169.2566499650403</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>188.1510459765346</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>142.2290480190925</v>
       </c>
       <c r="Y39" t="n">
-        <v>142.1387585929194</v>
+        <v>149.7131959052981</v>
       </c>
     </row>
     <row r="40">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.1899044790956</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25640,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5599377815856</v>
+        <v>350.0160005972004</v>
       </c>
       <c r="H41" t="n">
-        <v>321.6263543445543</v>
+        <v>258.0824171601691</v>
       </c>
       <c r="I41" t="n">
-        <v>143.2866028427426</v>
+        <v>79.74266565835731</v>
       </c>
       <c r="J41" t="n">
-        <v>33.12795564134777</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>305.6276146635265</v>
       </c>
       <c r="W41" t="n">
-        <v>293.9883692694565</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>306.1871634940841</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>322.6940014716686</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25716,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>81.52527520899889</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.4110370982271</v>
       </c>
       <c r="H42" t="n">
-        <v>39.68571274029685</v>
+        <v>103.2296499246818</v>
       </c>
       <c r="I42" t="n">
-        <v>3.873317771225885</v>
+        <v>3.873317771225608</v>
       </c>
       <c r="J42" t="n">
         <v>38.73870964995508</v>
@@ -25752,13 +25752,13 @@
         <v>20.95151175584304</v>
       </c>
       <c r="R42" t="n">
-        <v>87.78394343805661</v>
+        <v>24.24000625367135</v>
       </c>
       <c r="S42" t="n">
-        <v>154.3627628792534</v>
+        <v>90.81882569486811</v>
       </c>
       <c r="T42" t="n">
-        <v>196.4061796609626</v>
+        <v>140.436679788956</v>
       </c>
       <c r="U42" t="n">
         <v>225.8800347082785</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>149.8034853314712</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>313.8591678885712</v>
+        <v>319.9876837753574</v>
       </c>
       <c r="D44" t="n">
-        <v>303.2693177382466</v>
+        <v>303.2693177382463</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>143.2866028427426</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94567279381437</v>
+        <v>33.12795564134777</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>34.10292514811658</v>
       </c>
       <c r="R44" t="n">
         <v>106.1093940515595</v>
@@ -25922,16 +25922,16 @@
         <v>251.2062289291525</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>276.3385345876982</v>
       </c>
       <c r="W44" t="n">
-        <v>297.8272448349766</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>334.8242147736169</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25944,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>121.2947751058793</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>96.03134168220235</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>106.2313565729645</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>91.12582910257714</v>
+        <v>136.4110370982271</v>
       </c>
       <c r="H45" t="n">
         <v>103.2296499246818</v>
@@ -26001,16 +26001,16 @@
         <v>225.8800347082785</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>181.3868632669886</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>200.2812592784829</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>154.3592613210408</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>160.3974877816541</v>
       </c>
     </row>
     <row r="46">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344721.2723363236</v>
+        <v>344721.2723363234</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349970.9870680787</v>
+        <v>349970.9870680788</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351898.0476132445</v>
+        <v>351898.0476132446</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351898.0476132445</v>
+        <v>351898.0476132444</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>337045.0691913632</v>
+        <v>337045.0691913633</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>77453.67751880539</v>
       </c>
       <c r="C2" t="n">
-        <v>77453.6775188054</v>
+        <v>77453.67751880539</v>
       </c>
       <c r="D2" t="n">
         <v>77478.19920391326</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3272.840720785446</v>
+        <v>3272.84072078545</v>
       </c>
       <c r="I3" t="n">
-        <v>1564.918326334815</v>
+        <v>1564.918326334827</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>11345.96518289281</v>
+        <v>11345.96518289277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.95698610363527</v>
+        <v>45.9569861036352</v>
       </c>
       <c r="F4" t="n">
-        <v>45.95698610363529</v>
+        <v>45.9569861036352</v>
       </c>
       <c r="G4" t="n">
-        <v>45.95698610363529</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="H4" t="n">
         <v>51.90843633179254</v>
       </c>
       <c r="I4" t="n">
-        <v>54.0930893095677</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="J4" t="n">
-        <v>54.0930893095677</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="K4" t="n">
-        <v>54.0930893095677</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="L4" t="n">
-        <v>54.0930893095677</v>
+        <v>54.09308930956772</v>
       </c>
       <c r="M4" t="n">
-        <v>45.9569861036353</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="N4" t="n">
-        <v>45.9569861036353</v>
+        <v>45.95698610363531</v>
       </c>
       <c r="O4" t="n">
-        <v>45.9569861036353</v>
+        <v>45.95698610363544</v>
       </c>
       <c r="P4" t="n">
-        <v>37.25469592353997</v>
+        <v>37.25469592354017</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
-        <v>13314.23863591562</v>
+        <v>13314.23863591561</v>
       </c>
       <c r="F5" t="n">
-        <v>13314.23863591562</v>
+        <v>13314.23863591561</v>
       </c>
       <c r="G5" t="n">
         <v>13314.23863591562</v>
@@ -26488,16 +26488,16 @@
         <v>14051.7556046741</v>
       </c>
       <c r="I5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="J5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="K5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="L5" t="n">
-        <v>14409.55748659074</v>
+        <v>14409.55748659075</v>
       </c>
       <c r="M5" t="n">
         <v>13314.23863591562</v>
@@ -26506,10 +26506,10 @@
         <v>13314.23863591562</v>
       </c>
       <c r="O5" t="n">
-        <v>13314.23863591562</v>
+        <v>13314.23863591564</v>
       </c>
       <c r="P5" t="n">
-        <v>12576.72166715715</v>
+        <v>12576.72166715717</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-277597.345921362</v>
       </c>
       <c r="C6" t="n">
-        <v>36715.32230145425</v>
+        <v>36715.32230145424</v>
       </c>
       <c r="D6" t="n">
         <v>36619.70799935201</v>
       </c>
       <c r="E6" t="n">
-        <v>-16320.75830564252</v>
+        <v>-16320.75830564253</v>
       </c>
       <c r="F6" t="n">
         <v>88779.44062578023</v>
       </c>
       <c r="G6" t="n">
-        <v>88779.44062578022</v>
+        <v>88779.44062578029</v>
       </c>
       <c r="H6" t="n">
         <v>86318.60251763929</v>
       </c>
       <c r="I6" t="n">
-        <v>88237.51927946687</v>
+        <v>88237.51927946683</v>
       </c>
       <c r="J6" t="n">
-        <v>89802.43760580166</v>
+        <v>89802.43760580165</v>
       </c>
       <c r="K6" t="n">
-        <v>89802.43760580166</v>
+        <v>89802.43760580165</v>
       </c>
       <c r="L6" t="n">
-        <v>89802.43760580168</v>
+        <v>89802.43760580165</v>
       </c>
       <c r="M6" t="n">
-        <v>77433.47544288741</v>
+        <v>77433.47544288747</v>
       </c>
       <c r="N6" t="n">
-        <v>88779.44062578023</v>
+        <v>88779.44062578022</v>
       </c>
       <c r="O6" t="n">
-        <v>88779.44062578023</v>
+        <v>88779.44062578025</v>
       </c>
       <c r="P6" t="n">
-        <v>87251.22932324908</v>
+        <v>87251.22932324906</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>433.5214337204135</v>
+        <v>433.5214337204136</v>
       </c>
       <c r="F3" t="n">
         <v>433.5214337204136</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="F4" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="G4" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="H4" t="n">
         <v>75.67415048633356</v>
       </c>
       <c r="I4" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="J4" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="K4" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="L4" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="M4" t="n">
         <v>63.54393718438499</v>
@@ -26826,10 +26826,10 @@
         <v>63.54393718438499</v>
       </c>
       <c r="O4" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="P4" t="n">
-        <v>51.4137238824364</v>
+        <v>51.41372388243666</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.13021330194858</v>
+        <v>12.1302133019486</v>
       </c>
       <c r="I4" t="n">
-        <v>5.884899373629068</v>
+        <v>5.884899373629111</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>45.52882450880729</v>
+        <v>45.52882450880713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.13021330194858</v>
+        <v>12.1302133019486</v>
       </c>
     </row>
   </sheetData>
@@ -31756,25 +31756,25 @@
         <v>17.8484477712128</v>
       </c>
       <c r="I11" t="n">
-        <v>67.1892867276633</v>
+        <v>67.18928672766332</v>
       </c>
       <c r="J11" t="n">
         <v>147.9179488853385</v>
       </c>
       <c r="K11" t="n">
-        <v>221.6906616064846</v>
+        <v>221.6906616064847</v>
       </c>
       <c r="L11" t="n">
         <v>275.0268689520972</v>
       </c>
       <c r="M11" t="n">
-        <v>293.8901704116577</v>
+        <v>293.8901704116576</v>
       </c>
       <c r="N11" t="n">
-        <v>292.9570007809759</v>
+        <v>292.9570007809757</v>
       </c>
       <c r="O11" t="n">
-        <v>293.6421486060717</v>
+        <v>293.6421486060715</v>
       </c>
       <c r="P11" t="n">
         <v>250.6167801840708</v>
@@ -31789,7 +31789,7 @@
         <v>39.71404892825699</v>
       </c>
       <c r="T11" t="n">
-        <v>7.629105833612502</v>
+        <v>7.629105833612503</v>
       </c>
       <c r="U11" t="n">
         <v>0.139423978683952</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9324800649835311</v>
+        <v>0.9324800649835312</v>
       </c>
       <c r="H12" t="n">
         <v>9.005794311814631</v>
       </c>
       <c r="I12" t="n">
-        <v>32.10512504438912</v>
+        <v>32.10512504438913</v>
       </c>
       <c r="J12" t="n">
-        <v>88.0989170167116</v>
+        <v>88.09891701671161</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>202.0983169642591</v>
+        <v>202.098316964259</v>
       </c>
       <c r="M12" t="n">
-        <v>205.6779711064033</v>
+        <v>205.6779711064031</v>
       </c>
       <c r="N12" t="n">
-        <v>148.2298307132285</v>
+        <v>194.8856492677181</v>
       </c>
       <c r="O12" t="n">
-        <v>206.1401816288294</v>
+        <v>159.4843630743396</v>
       </c>
       <c r="P12" t="n">
         <v>178.0627941633903</v>
@@ -31862,7 +31862,7 @@
         <v>119.0302623301785</v>
       </c>
       <c r="R12" t="n">
-        <v>57.89556052590733</v>
+        <v>57.89556052590734</v>
       </c>
       <c r="S12" t="n">
         <v>17.32040822458444</v>
@@ -31871,7 +31871,7 @@
         <v>3.758549033859056</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06134737269628496</v>
+        <v>0.06134737269628497</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7817599624466472</v>
+        <v>0.7817599624466474</v>
       </c>
       <c r="H13" t="n">
-        <v>6.950556757025651</v>
+        <v>6.950556757025652</v>
       </c>
       <c r="I13" t="n">
         <v>23.50965414339555</v>
       </c>
       <c r="J13" t="n">
-        <v>55.27042934497796</v>
+        <v>55.27042934497797</v>
       </c>
       <c r="K13" t="n">
-        <v>90.82629381880136</v>
+        <v>90.82629381880137</v>
       </c>
       <c r="L13" t="n">
         <v>116.2263856895679</v>
@@ -31950,7 +31950,7 @@
         <v>3.340247112272038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0426414524970899</v>
+        <v>0.04264145249708991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32005,10 +32005,10 @@
         <v>275.0268689520972</v>
       </c>
       <c r="M14" t="n">
-        <v>293.8901704116577</v>
+        <v>293.8901704116576</v>
       </c>
       <c r="N14" t="n">
-        <v>292.9570007809759</v>
+        <v>292.9570007809757</v>
       </c>
       <c r="O14" t="n">
         <v>293.6421486060717</v>
@@ -32078,19 +32078,19 @@
         <v>88.09891701671161</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5750813706082</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>202.0983169642591</v>
+        <v>202.098316964259</v>
       </c>
       <c r="M15" t="n">
-        <v>205.6779711064033</v>
+        <v>159.0221525519135</v>
       </c>
       <c r="N15" t="n">
-        <v>135.4961883169794</v>
+        <v>194.8856492677181</v>
       </c>
       <c r="O15" t="n">
-        <v>206.1401816288294</v>
+        <v>206.1401816288293</v>
       </c>
       <c r="P15" t="n">
         <v>178.0627941633903</v>
@@ -32318,16 +32318,16 @@
         <v>150.5750813706082</v>
       </c>
       <c r="L18" t="n">
-        <v>202.0983169642591</v>
+        <v>202.0983169642592</v>
       </c>
       <c r="M18" t="n">
         <v>205.6779711064033</v>
       </c>
       <c r="N18" t="n">
-        <v>135.4961883169794</v>
+        <v>194.8856492677183</v>
       </c>
       <c r="O18" t="n">
-        <v>206.1401816288294</v>
+        <v>146.7507206780905</v>
       </c>
       <c r="P18" t="n">
         <v>178.0627941633903</v>
@@ -32552,10 +32552,10 @@
         <v>88.09891701671161</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5750813706082</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>154.3489596871073</v>
+        <v>167.0826020833565</v>
       </c>
       <c r="M21" t="n">
         <v>217.8081844083519</v>
@@ -32719,7 +32719,7 @@
         <v>306.0203837136063</v>
       </c>
       <c r="N23" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O23" t="n">
         <v>293.6421486060717</v>
@@ -32789,19 +32789,19 @@
         <v>88.09891701671161</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>150.5750813706082</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4667790219724</v>
+        <v>162.2906512093864</v>
       </c>
       <c r="M24" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N24" t="n">
-        <v>212.9007619432959</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O24" t="n">
-        <v>194.4182430273544</v>
+        <v>221.8607284436913</v>
       </c>
       <c r="P24" t="n">
         <v>178.0627941633903</v>
@@ -32956,7 +32956,7 @@
         <v>306.0203837136063</v>
       </c>
       <c r="N26" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O26" t="n">
         <v>293.6421486060717</v>
@@ -33032,10 +33032,10 @@
         <v>202.4667790219724</v>
       </c>
       <c r="M27" t="n">
-        <v>183.5169559693948</v>
+        <v>183.5169559693949</v>
       </c>
       <c r="N27" t="n">
-        <v>212.9007619432959</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O27" t="n">
         <v>221.8607284436913</v>
@@ -33193,7 +33193,7 @@
         <v>306.0203837136063</v>
       </c>
       <c r="N29" t="n">
-        <v>310.9721134565535</v>
+        <v>310.9721134565536</v>
       </c>
       <c r="O29" t="n">
         <v>293.6421486060717</v>
@@ -33269,10 +33269,10 @@
         <v>202.4667790219724</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5169559693948</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N30" t="n">
-        <v>212.9007619432959</v>
+        <v>172.7246341307099</v>
       </c>
       <c r="O30" t="n">
         <v>221.8607284436913</v>
@@ -33503,13 +33503,13 @@
         <v>150.5750813706082</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4667790219724</v>
+        <v>162.2906512093864</v>
       </c>
       <c r="M33" t="n">
-        <v>223.6930837819809</v>
+        <v>223.693083781981</v>
       </c>
       <c r="N33" t="n">
-        <v>172.7246341307098</v>
+        <v>212.900761943296</v>
       </c>
       <c r="O33" t="n">
         <v>221.8607284436913</v>
@@ -33740,10 +33740,10 @@
         <v>150.5750813706082</v>
       </c>
       <c r="L36" t="n">
-        <v>202.0983169642592</v>
+        <v>142.7088560135203</v>
       </c>
       <c r="M36" t="n">
-        <v>146.2885101556644</v>
+        <v>205.6779711064033</v>
       </c>
       <c r="N36" t="n">
         <v>194.8856492677183</v>
@@ -34138,10 +34138,10 @@
         <v>275.0268689520972</v>
       </c>
       <c r="M41" t="n">
-        <v>293.8901704116577</v>
+        <v>293.890170411658</v>
       </c>
       <c r="N41" t="n">
-        <v>292.9570007809759</v>
+        <v>292.9570007809762</v>
       </c>
       <c r="O41" t="n">
         <v>293.6421486060717</v>
@@ -34214,16 +34214,16 @@
         <v>150.5750813706082</v>
       </c>
       <c r="L42" t="n">
-        <v>142.7088560135203</v>
+        <v>202.0983169642595</v>
       </c>
       <c r="M42" t="n">
-        <v>205.6779711064033</v>
+        <v>205.6779711064036</v>
       </c>
       <c r="N42" t="n">
-        <v>194.8856492677183</v>
+        <v>135.4961883169796</v>
       </c>
       <c r="O42" t="n">
-        <v>206.1401816288294</v>
+        <v>206.1401816288297</v>
       </c>
       <c r="P42" t="n">
         <v>178.0627941633903</v>
@@ -34375,16 +34375,16 @@
         <v>275.0268689520972</v>
       </c>
       <c r="M44" t="n">
-        <v>281.7599571097091</v>
+        <v>281.7599571097094</v>
       </c>
       <c r="N44" t="n">
-        <v>280.8267874790273</v>
+        <v>280.8267874790276</v>
       </c>
       <c r="O44" t="n">
-        <v>281.5119353041231</v>
+        <v>281.5119353041234</v>
       </c>
       <c r="P44" t="n">
-        <v>241.3089434785278</v>
+        <v>241.3089434785281</v>
       </c>
       <c r="Q44" t="n">
         <v>188.2027647263329</v>
@@ -34451,16 +34451,16 @@
         <v>150.5750813706082</v>
       </c>
       <c r="L45" t="n">
-        <v>189.9681036623106</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>193.5477578044547</v>
+        <v>186.0621303645143</v>
       </c>
       <c r="N45" t="n">
-        <v>175.2698085258287</v>
+        <v>182.75543596577</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>194.0099683268811</v>
       </c>
       <c r="P45" t="n">
         <v>178.0627941633903</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.60081056150409</v>
+        <v>1.600810561504119</v>
       </c>
       <c r="L11" t="n">
         <v>39.26045398210994</v>
       </c>
       <c r="M11" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N11" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O11" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P11" t="n">
-        <v>19.38378442880128</v>
+        <v>19.38378442880131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="M12" t="n">
-        <v>63.54393718438494</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N12" t="n">
-        <v>16.88811862989521</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O12" t="n">
-        <v>63.54393718438494</v>
+        <v>16.88811862989512</v>
       </c>
       <c r="P12" t="n">
         <v>44.08838674906002</v>
@@ -35653,13 +35653,13 @@
         <v>39.26045398210994</v>
       </c>
       <c r="M14" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="N14" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O14" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P14" t="n">
         <v>19.38378442880131</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.73364239624919</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="M15" t="n">
-        <v>63.54393718438497</v>
+        <v>16.88811862989512</v>
       </c>
       <c r="N15" t="n">
-        <v>4.154476233646054</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="O15" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438481</v>
       </c>
       <c r="P15" t="n">
         <v>44.08838674906002</v>
@@ -35890,10 +35890,10 @@
         <v>39.26045398210994</v>
       </c>
       <c r="M17" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N17" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O17" t="n">
         <v>63.54393718438499</v>
@@ -35966,16 +35966,16 @@
         <v>12.73364239624919</v>
       </c>
       <c r="L18" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="M18" t="n">
-        <v>63.54393718438497</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="N18" t="n">
-        <v>4.154476233646054</v>
+        <v>63.54393718438499</v>
       </c>
       <c r="O18" t="n">
-        <v>63.54393718438497</v>
+        <v>4.154476233646083</v>
       </c>
       <c r="P18" t="n">
         <v>44.08838674906002</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.73364239624919</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.79457990723311</v>
+        <v>28.5282223034823</v>
       </c>
       <c r="M21" t="n">
         <v>75.67415048633356</v>
@@ -36367,7 +36367,7 @@
         <v>75.67415048633356</v>
       </c>
       <c r="N23" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O23" t="n">
         <v>63.54393718438499</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.73364239624919</v>
       </c>
       <c r="L24" t="n">
-        <v>63.91239924209825</v>
+        <v>23.73627142951219</v>
       </c>
       <c r="M24" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N24" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O24" t="n">
-        <v>51.82199858290992</v>
+        <v>79.26448399924683</v>
       </c>
       <c r="P24" t="n">
         <v>44.08838674906002</v>
@@ -36604,7 +36604,7 @@
         <v>75.67415048633356</v>
       </c>
       <c r="N26" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O26" t="n">
         <v>63.54393718438499</v>
@@ -36680,10 +36680,10 @@
         <v>63.91239924209825</v>
       </c>
       <c r="M27" t="n">
-        <v>41.38292204737647</v>
+        <v>41.3829220473766</v>
       </c>
       <c r="N27" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O27" t="n">
         <v>79.26448399924683</v>
@@ -36841,7 +36841,7 @@
         <v>75.67415048633356</v>
       </c>
       <c r="N29" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O29" t="n">
         <v>63.54393718438499</v>
@@ -36917,10 +36917,10 @@
         <v>63.91239924209825</v>
       </c>
       <c r="M30" t="n">
-        <v>41.38292204737647</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N30" t="n">
-        <v>81.55904985996263</v>
+        <v>41.38292204737662</v>
       </c>
       <c r="O30" t="n">
         <v>79.26448399924683</v>
@@ -37078,7 +37078,7 @@
         <v>75.67415048633356</v>
       </c>
       <c r="N32" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O32" t="n">
         <v>63.54393718438499</v>
@@ -37151,13 +37151,13 @@
         <v>12.73364239624919</v>
       </c>
       <c r="L33" t="n">
-        <v>63.91239924209825</v>
+        <v>23.73627142951219</v>
       </c>
       <c r="M33" t="n">
-        <v>81.55904985996263</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="N33" t="n">
-        <v>41.38292204737647</v>
+        <v>81.55904985996267</v>
       </c>
       <c r="O33" t="n">
         <v>79.26448399924683</v>
@@ -37388,10 +37388,10 @@
         <v>12.73364239624919</v>
       </c>
       <c r="L36" t="n">
+        <v>4.154476233646076</v>
+      </c>
+      <c r="M36" t="n">
         <v>63.54393718438499</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.154476233646083</v>
       </c>
       <c r="N36" t="n">
         <v>63.54393718438499</v>
@@ -37786,10 +37786,10 @@
         <v>39.26045398210994</v>
       </c>
       <c r="M41" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="N41" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="O41" t="n">
         <v>63.54393718438499</v>
@@ -37862,16 +37862,16 @@
         <v>12.73364239624919</v>
       </c>
       <c r="L42" t="n">
-        <v>4.154476233646076</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="M42" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="N42" t="n">
-        <v>63.54393718438499</v>
+        <v>4.154476233646341</v>
       </c>
       <c r="O42" t="n">
-        <v>63.54393718438499</v>
+        <v>63.54393718438526</v>
       </c>
       <c r="P42" t="n">
         <v>44.08838674906002</v>
@@ -38023,16 +38023,16 @@
         <v>39.26045398210994</v>
       </c>
       <c r="M44" t="n">
-        <v>51.4137238824364</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="N44" t="n">
-        <v>51.4137238824364</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="O44" t="n">
-        <v>51.4137238824364</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="P44" t="n">
-        <v>10.07594772325829</v>
+        <v>10.07594772325861</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>12.73364239624919</v>
       </c>
       <c r="L45" t="n">
-        <v>51.4137238824364</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.4137238824364</v>
+        <v>43.92809644249598</v>
       </c>
       <c r="N45" t="n">
-        <v>43.92809644249542</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.41372388243666</v>
       </c>
       <c r="P45" t="n">
         <v>44.08838674906002</v>
